--- a/DBSQL/Colgate.xlsx
+++ b/DBSQL/Colgate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\leyen\Documents\GitHub\API-Creator-Helio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VictoriaZepeda\Documents\ESEN\Tercero\Ciclo II\Programación\helio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D894C0-E861-4727-A9EB-0BA27CFAE587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06D1B5E-C31F-4FF2-AAD7-43ACF8061400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{85C0DF69-F31C-4A0C-869A-DB21FF09C0EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{85C0DF69-F31C-4A0C-869A-DB21FF09C0EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>nombre producto</t>
   </si>
@@ -100,24 +100,106 @@
   </si>
   <si>
     <t>Enjuague bucal con fluor que ayuda a fortalecer el esmalte y brinda protección anti caries para los niños.</t>
+  </si>
+  <si>
+    <t>Dentifrico Sensitive Pro-Alivio Reparación Completa</t>
+  </si>
+  <si>
+    <t>Alivio instantáneo y duradero contra la sensibilidad.</t>
+  </si>
+  <si>
+    <t>https://www.colgate.com/content/dam/cp-sites/oral-care/oral-care-center/es-mx/product-detail-pages/toothpaste/sensitive-pro-alivio-complete-repair.jpg.rendition.300.300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.colgate.com/content/dam/cp-sites/oral-care/oral-care-center/es-mx/product-detail-pages/toothpaste/maxima-proteccion-anticaries.jpg.rendition.300.300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.colgate.com/content/dam/cp-sites/oral-care/oral-care-center/es-mx/product-detail-pages/toothpaste/luminous-advanced.jpg.rendition.300.300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.colgate.com/content/dam/cp-sites/oral-care/oral-care-center/es-mx/product-detail-pages/toothpaste/doble-frescura.jpg.rendition.300.300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.colgate.com/content/dam/cp-sites/oral-care/oral-care-center/es-mx/product-detail-pages/kids-products/colgate-smiles-barbie-2-5.png.rendition.300.300.png</t>
+  </si>
+  <si>
+    <t>https://www.colgate.com/content/dam/cp-sites/oral-care/oral-care-center/global/general/products/sub-brands-latam/bamboo/cepillo-colgate-bamboo-pack-toothbrush.jpg.rendition.300.300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.colgate.com/content/dam/cp-sites/oral-care/oral-care-center/es-mx/product-detail-pages/toothbrush/colgate-360-luminous-white.png.rendition.300.300.png</t>
+  </si>
+  <si>
+    <t>https://www.colgate.com/content/dam/cp-sites/oral-care/oral-care-center/es-mx/product-detail-pages/specialty-products/hilo-dental-encerado-colgate_main-lg.png.rendition.300.300.png</t>
+  </si>
+  <si>
+    <t>https://www.colgate.com/content/dam/cp-sites/oral-care/oral-care-center/es-mx/product-detail-pages/mouthwash/colgate-plax-ice-glacial.jpg.rendition.300.300.jpg</t>
+  </si>
+  <si>
+    <t>Enjuague Plax Ice Glacial</t>
+  </si>
+  <si>
+    <t>El nuevo Colgate Plax Ice Glacial presenta una fórmula exclusiva con tecnología X-Freeze que proporciona frescura intensa sin quemar. Cuando te sientes bien contigo mismo, tu confianza aumenta!</t>
+  </si>
+  <si>
+    <t>Hilo Dental Colgate</t>
+  </si>
+  <si>
+    <t>1º Paso para su higiene bucal.</t>
+  </si>
+  <si>
+    <t>Cepillo Smiles Barbie</t>
+  </si>
+  <si>
+    <t>Recomendado para niños de 2-5 años.</t>
+  </si>
+  <si>
+    <t>Dentifrico Máxima Protección Anticaries</t>
+  </si>
+  <si>
+    <t>Su fórmula con fluoruro activo penetra en sus dientes para retener el calcio natural haciéndolos tan fuertes como puedan ser.</t>
+  </si>
+  <si>
+    <t>Dentifrico Luminous White Advanced</t>
+  </si>
+  <si>
+    <t>3 tonos más blancos. Después de 4 semanas de uso contínuo.</t>
+  </si>
+  <si>
+    <t>Dentifrico Doble Frescura</t>
+  </si>
+  <si>
+    <t>Crema dental familiar con completa protección para una boca saludable y fresca.</t>
+  </si>
+  <si>
+    <t>Cepillo Dental Bamboo</t>
+  </si>
+  <si>
+    <t>Además de estar hecho 100% de madera de bambú, tiene bordes redondeados y cerdas infundidas en carbón que le hacen bien a tu boca y al planeta.</t>
+  </si>
+  <si>
+    <t>Limpieza completa + 2x acción blanqueadora.</t>
+  </si>
+  <si>
+    <t>Cepillo Dental 360° Luminous White</t>
+  </si>
+  <si>
+    <t>https://www.colgate.com/content/dam/cp-sites/oral-care/oral-care-center/es-mx/product-detail-pages/kids-products/colgate-smiles-barbie-6.png.rendition.300.300.png</t>
+  </si>
+  <si>
+    <t>Recomendado para niños de 5 años en adelante.</t>
+  </si>
+  <si>
+    <t>Cepillo Smiles Barbie 5+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,16 +222,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -166,7 +245,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -462,23 +541,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0AD06E-A0B1-4096-81F3-5DDE50AB9A0B}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -511,14 +590,14 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -531,14 +610,14 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3">
         <v>4.25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -551,14 +630,14 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4">
         <v>2.67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -571,14 +650,14 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5">
         <v>6.85</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -591,21 +670,215 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6">
         <v>5.0999999999999996</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>375</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>325</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>357.857142857143</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>360.53571428571399</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>363.21428571428601</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>365.892857142857</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>368.57142857142901</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>371.25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>373.92857142857201</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>376.607142857143</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{8DCFFD0C-F40C-4E0E-90B3-946626F443D6}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{CC9F9453-C738-41BB-AD9D-5FB442D99CA2}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{890A5DBB-5489-414F-A3F0-B1A03F02062A}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{929E9AEA-00BB-42F9-B57D-50E7C4421BC5}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{ABFFA162-42AC-4F45-A90B-11EBAA4D7971}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>